--- a/set_dsc.xlsx
+++ b/set_dsc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dp/midor/midor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A22CC41-EAB0-9C4C-AFCD-0203A424E5D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D7923-478A-AB49-8326-F7A042D2FFE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6B78318E-ABA4-794A-8608-376C8B6802B6}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>stage</t>
   </si>
   <si>
-    <t>documentReferenceBy</t>
-  </si>
-  <si>
     <t>2544-00-MR-1321-101</t>
   </si>
   <si>
@@ -533,6 +530,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentReferenceBy </t>
   </si>
 </sst>
 </file>
@@ -915,7 +915,7 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,10 +929,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>3070</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -966,16 +966,16 @@
         <v>3166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -983,16 +983,16 @@
         <v>3167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1000,16 +1000,16 @@
         <v>3213</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1017,16 +1017,16 @@
         <v>3214</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1034,16 +1034,16 @@
         <v>3250</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1051,16 +1051,16 @@
         <v>3251</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,16 +1068,16 @@
         <v>3276</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1085,16 +1085,16 @@
         <v>3283</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1102,16 +1102,16 @@
         <v>3285</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1119,16 +1119,16 @@
         <v>3286</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1136,16 +1136,16 @@
         <v>3296</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1153,16 +1153,16 @@
         <v>3297</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,16 +1170,16 @@
         <v>3303</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1187,16 +1187,16 @@
         <v>3359</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1204,16 +1204,16 @@
         <v>3373</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1221,16 +1221,16 @@
         <v>3379</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1238,16 +1238,16 @@
         <v>3385</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1255,16 +1255,16 @@
         <v>3390</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,16 +1272,16 @@
         <v>3391</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1289,16 +1289,16 @@
         <v>3395</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1306,16 +1306,16 @@
         <v>3396</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1323,16 +1323,16 @@
         <v>3449</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1340,16 +1340,16 @@
         <v>3474</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,16 +1357,16 @@
         <v>3475</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1374,16 +1374,16 @@
         <v>3496</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1391,16 +1391,16 @@
         <v>3497</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1408,16 +1408,16 @@
         <v>3572</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1425,16 +1425,16 @@
         <v>3573</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
         <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1442,16 +1442,16 @@
         <v>3578</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1459,16 +1459,16 @@
         <v>3579</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
         <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1476,16 +1476,16 @@
         <v>3609</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1493,16 +1493,16 @@
         <v>3610</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1510,16 +1510,16 @@
         <v>3611</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1527,16 +1527,16 @@
         <v>3612</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1544,16 +1544,16 @@
         <v>3613</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1561,16 +1561,16 @@
         <v>3698</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1578,16 +1578,16 @@
         <v>3699</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1595,16 +1595,16 @@
         <v>3705</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1612,16 +1612,16 @@
         <v>3706</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1629,16 +1629,16 @@
         <v>3707</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1646,16 +1646,16 @@
         <v>3709</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1663,16 +1663,16 @@
         <v>3759</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1680,16 +1680,16 @@
         <v>3761</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1697,16 +1697,16 @@
         <v>3786</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1714,16 +1714,16 @@
         <v>3787</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1731,16 +1731,16 @@
         <v>3788</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1748,16 +1748,16 @@
         <v>3796</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1765,16 +1765,16 @@
         <v>3799</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1782,16 +1782,16 @@
         <v>3800</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1799,16 +1799,16 @@
         <v>3862</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1816,16 +1816,16 @@
         <v>3879</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1833,16 +1833,16 @@
         <v>3880</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1850,16 +1850,16 @@
         <v>3881</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1867,16 +1867,16 @@
         <v>3882</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1884,16 +1884,16 @@
         <v>3883</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1901,16 +1901,16 @@
         <v>3884</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1918,16 +1918,16 @@
         <v>3885</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1935,16 +1935,16 @@
         <v>3886</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1952,16 +1952,16 @@
         <v>3887</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1969,16 +1969,16 @@
         <v>3888</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1986,16 +1986,16 @@
         <v>3889</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2003,16 +2003,16 @@
         <v>3890</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2020,16 +2020,16 @@
         <v>3891</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2037,16 +2037,16 @@
         <v>3892</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2054,16 +2054,16 @@
         <v>3893</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2071,16 +2071,16 @@
         <v>3894</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2088,16 +2088,16 @@
         <v>3895</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2105,16 +2105,16 @@
         <v>3896</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2122,16 +2122,16 @@
         <v>3897</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2139,16 +2139,16 @@
         <v>3898</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2156,16 +2156,16 @@
         <v>3899</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2173,16 +2173,16 @@
         <v>3900</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,16 +2190,16 @@
         <v>3901</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2207,16 +2207,16 @@
         <v>3902</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2224,16 +2224,16 @@
         <v>3903</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2241,16 +2241,16 @@
         <v>3904</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2258,16 +2258,16 @@
         <v>3905</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2275,16 +2275,16 @@
         <v>3906</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2292,16 +2292,16 @@
         <v>3907</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2309,16 +2309,16 @@
         <v>3908</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2326,16 +2326,16 @@
         <v>3909</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2343,16 +2343,16 @@
         <v>3910</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2360,16 +2360,16 @@
         <v>3911</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2377,16 +2377,16 @@
         <v>3912</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2394,16 +2394,16 @@
         <v>3913</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2411,16 +2411,16 @@
         <v>3914</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2428,16 +2428,16 @@
         <v>3915</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2445,16 +2445,16 @@
         <v>3916</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2462,16 +2462,16 @@
         <v>3917</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2479,16 +2479,16 @@
         <v>3918</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2496,16 +2496,16 @@
         <v>3919</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2513,16 +2513,16 @@
         <v>3920</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2530,16 +2530,16 @@
         <v>3921</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2547,16 +2547,16 @@
         <v>3922</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2564,16 +2564,16 @@
         <v>4025</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2581,16 +2581,16 @@
         <v>4163</v>
       </c>
       <c r="B98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2598,16 +2598,16 @@
         <v>4169</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2615,16 +2615,16 @@
         <v>4207</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2632,16 +2632,16 @@
         <v>4237</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2649,16 +2649,16 @@
         <v>4239</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2666,16 +2666,16 @@
         <v>4241</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2683,16 +2683,16 @@
         <v>4243</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2700,16 +2700,16 @@
         <v>4245</v>
       </c>
       <c r="B105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2717,16 +2717,16 @@
         <v>4248</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2734,16 +2734,16 @@
         <v>4251</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2751,16 +2751,16 @@
         <v>4263</v>
       </c>
       <c r="B108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2768,16 +2768,16 @@
         <v>4295</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2785,16 +2785,16 @@
         <v>4303</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2802,16 +2802,16 @@
         <v>4304</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2819,16 +2819,16 @@
         <v>4317</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2836,16 +2836,16 @@
         <v>4322</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2853,16 +2853,16 @@
         <v>4324</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2870,16 +2870,16 @@
         <v>4330</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2887,16 +2887,16 @@
         <v>4335</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2904,16 +2904,16 @@
         <v>4404</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2921,16 +2921,16 @@
         <v>4438</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2938,16 +2938,16 @@
         <v>4478</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2955,16 +2955,16 @@
         <v>4484</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2972,16 +2972,16 @@
         <v>8791</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2989,16 +2989,16 @@
         <v>8792</v>
       </c>
       <c r="B122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3006,16 +3006,16 @@
         <v>8793</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3023,16 +3023,16 @@
         <v>8794</v>
       </c>
       <c r="B124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3040,16 +3040,16 @@
         <v>8795</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3057,16 +3057,16 @@
         <v>8796</v>
       </c>
       <c r="B126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3074,16 +3074,16 @@
         <v>8816</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3091,16 +3091,16 @@
         <v>8817</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
         <v>5</v>
-      </c>
-      <c r="E128" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3108,16 +3108,16 @@
         <v>8926</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3125,16 +3125,16 @@
         <v>8927</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3142,16 +3142,16 @@
         <v>8928</v>
       </c>
       <c r="B131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3159,16 +3159,16 @@
         <v>8950</v>
       </c>
       <c r="B132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3176,16 +3176,16 @@
         <v>8952</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3193,16 +3193,16 @@
         <v>9029</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3210,16 +3210,16 @@
         <v>9072</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3227,16 +3227,16 @@
         <v>9275</v>
       </c>
       <c r="B136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3244,16 +3244,16 @@
         <v>9277</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -3261,16 +3261,16 @@
         <v>9278</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3278,16 +3278,16 @@
         <v>9279</v>
       </c>
       <c r="B139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3295,16 +3295,16 @@
         <v>9280</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -3312,16 +3312,16 @@
         <v>9340</v>
       </c>
       <c r="B141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3329,16 +3329,16 @@
         <v>9341</v>
       </c>
       <c r="B142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
